--- a/database/industries/urea/shapdis/income/yearly/rial.xlsx
+++ b/database/industries/urea/shapdis/income/yearly/rial.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="H9" s="10" t="inlineStr">
         <is>
-          <t>1401-04-29 (6)</t>
+          <t>1401-05-19 (7)</t>
         </is>
       </c>
     </row>

--- a/database/industries/urea/shapdis/income/yearly/rial.xlsx
+++ b/database/industries/urea/shapdis/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD13BD7-0851-46D6-AAEB-ADF06C3C4786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC4D30-EAD4-4B34-A57E-4648068B5912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپدیس-پتروشیمی پردیس</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1390/09</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1391/09</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/09</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/06</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/06</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1396/06</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/06</t>
   </si>
   <si>
@@ -67,27 +49,12 @@
     <t>12 ماهه منتهی به 1400/06</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1391-10-28 (12)</t>
-  </si>
-  <si>
-    <t>1392-10-29 (13)</t>
-  </si>
-  <si>
-    <t>1393-08-20 (19)</t>
-  </si>
-  <si>
-    <t>1395-09-07 (21)</t>
-  </si>
-  <si>
-    <t>1396-08-14 (13)</t>
-  </si>
-  <si>
-    <t>1397-09-07 (14)</t>
-  </si>
-  <si>
     <t>1398-09-17 (10)</t>
   </si>
   <si>
@@ -97,7 +64,10 @@
     <t>1400-09-27 (9)</t>
   </si>
   <si>
-    <t>1401-05-19 (7)</t>
+    <t>1401-10-05 (9)</t>
+  </si>
+  <si>
+    <t>1401-10-28 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -637,13 +607,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,13 +618,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,13 +629,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,13 +638,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,13 +649,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,13 +660,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,13 +669,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -755,59 +690,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -815,447 +720,262 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>8732746</v>
+        <v>34033862</v>
       </c>
       <c r="E11" s="13">
-        <v>16146469</v>
+        <v>51895084</v>
       </c>
       <c r="F11" s="13">
-        <v>16237793</v>
+        <v>78340025</v>
       </c>
       <c r="G11" s="13">
-        <v>18153221</v>
+        <v>197398681</v>
       </c>
       <c r="H11" s="13">
-        <v>17047417</v>
-      </c>
-      <c r="I11" s="13">
-        <v>15717431</v>
-      </c>
-      <c r="J11" s="13">
-        <v>34033862</v>
-      </c>
-      <c r="K11" s="13">
-        <v>51895084</v>
-      </c>
-      <c r="L11" s="13">
-        <v>78340025</v>
-      </c>
-      <c r="M11" s="13">
-        <v>197398681</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>431582823</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-2408439</v>
+        <v>-16579238</v>
       </c>
       <c r="E12" s="11">
-        <v>-2897469</v>
+        <v>-26538724</v>
       </c>
       <c r="F12" s="11">
-        <v>-3035334</v>
+        <v>-30994287</v>
       </c>
       <c r="G12" s="11">
-        <v>-8779813</v>
+        <v>-70710577</v>
       </c>
       <c r="H12" s="11">
-        <v>-8783563</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-9731625</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-16579238</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-26538724</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-30994287</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-70710577</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-159682555</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>6324307</v>
+        <v>17454624</v>
       </c>
       <c r="E13" s="15">
-        <v>13249000</v>
+        <v>25356360</v>
       </c>
       <c r="F13" s="15">
-        <v>13202459</v>
+        <v>47345738</v>
       </c>
       <c r="G13" s="15">
-        <v>9373408</v>
+        <v>126688104</v>
       </c>
       <c r="H13" s="15">
-        <v>8263854</v>
-      </c>
-      <c r="I13" s="15">
-        <v>5985806</v>
-      </c>
-      <c r="J13" s="15">
-        <v>17454624</v>
-      </c>
-      <c r="K13" s="15">
-        <v>25356360</v>
-      </c>
-      <c r="L13" s="15">
-        <v>47345738</v>
-      </c>
-      <c r="M13" s="15">
-        <v>126688104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>271900268</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-217899</v>
+        <v>-1552746</v>
       </c>
       <c r="E14" s="11">
-        <v>-266359</v>
+        <v>-3484756</v>
       </c>
       <c r="F14" s="11">
-        <v>-294252</v>
+        <v>-8165941</v>
       </c>
       <c r="G14" s="11">
-        <v>-710539</v>
+        <v>-9591839</v>
       </c>
       <c r="H14" s="11">
-        <v>-754464</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-1068658</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-1552746</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-3484756</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-8165941</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-9591839</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-38847143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13">
+        <v>21</v>
+      </c>
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="L15" s="13">
+      <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="M15" s="13">
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>133584</v>
+        <v>-572451</v>
       </c>
       <c r="E16" s="11">
-        <v>2466177</v>
+        <v>2294877</v>
       </c>
       <c r="F16" s="11">
-        <v>-65349</v>
+        <v>18351893</v>
       </c>
       <c r="G16" s="11">
-        <v>-21056</v>
+        <v>2372391</v>
       </c>
       <c r="H16" s="11">
-        <v>-89443</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-369517</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-572451</v>
-      </c>
-      <c r="K16" s="11">
-        <v>2294877</v>
-      </c>
-      <c r="L16" s="11">
-        <v>18351893</v>
-      </c>
-      <c r="M16" s="11">
-        <v>2372391</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>11254375</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>6239992</v>
+        <v>15329427</v>
       </c>
       <c r="E17" s="15">
-        <v>15448818</v>
+        <v>24166481</v>
       </c>
       <c r="F17" s="15">
-        <v>12842858</v>
+        <v>57531690</v>
       </c>
       <c r="G17" s="15">
-        <v>8641813</v>
+        <v>119468656</v>
       </c>
       <c r="H17" s="15">
-        <v>7419947</v>
-      </c>
-      <c r="I17" s="15">
-        <v>4547631</v>
-      </c>
-      <c r="J17" s="15">
-        <v>15329427</v>
-      </c>
-      <c r="K17" s="15">
-        <v>24166481</v>
-      </c>
-      <c r="L17" s="15">
-        <v>57531690</v>
-      </c>
-      <c r="M17" s="15">
-        <v>119468656</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>244307500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-280214</v>
+        <v>-1198213</v>
       </c>
       <c r="E18" s="11">
-        <v>-295085</v>
+        <v>-505619</v>
       </c>
       <c r="F18" s="11">
-        <v>-140307</v>
+        <v>-732424</v>
       </c>
       <c r="G18" s="11">
-        <v>-88568</v>
+        <v>-474078</v>
       </c>
       <c r="H18" s="11">
-        <v>-90567</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-1268070</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-1198213</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-505619</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-732424</v>
-      </c>
-      <c r="M18" s="11">
-        <v>-474078</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-1065627</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>91544</v>
+        <v>12211</v>
       </c>
       <c r="E19" s="13">
-        <v>-2095870</v>
+        <v>-104635</v>
       </c>
       <c r="F19" s="13">
-        <v>1145146</v>
+        <v>736262</v>
       </c>
       <c r="G19" s="13">
-        <v>231793</v>
+        <v>4525226</v>
       </c>
       <c r="H19" s="13">
-        <v>57693</v>
-      </c>
-      <c r="I19" s="13">
-        <v>-25470</v>
-      </c>
-      <c r="J19" s="13">
-        <v>12211</v>
-      </c>
-      <c r="K19" s="13">
-        <v>-104635</v>
-      </c>
-      <c r="L19" s="13">
-        <v>736262</v>
-      </c>
-      <c r="M19" s="13">
-        <v>4525226</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12770725</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>6051322</v>
+        <v>14143425</v>
       </c>
       <c r="E20" s="17">
-        <v>13057863</v>
+        <v>23556227</v>
       </c>
       <c r="F20" s="17">
-        <v>13847697</v>
+        <v>57535528</v>
       </c>
       <c r="G20" s="17">
-        <v>8785038</v>
+        <v>123519804</v>
       </c>
       <c r="H20" s="17">
-        <v>7387073</v>
-      </c>
-      <c r="I20" s="17">
-        <v>3254091</v>
-      </c>
-      <c r="J20" s="17">
-        <v>14143425</v>
-      </c>
-      <c r="K20" s="17">
-        <v>23556227</v>
-      </c>
-      <c r="L20" s="17">
-        <v>57535528</v>
-      </c>
-      <c r="M20" s="17">
-        <v>123519804</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>256012598</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-40503</v>
+        <v>-75759</v>
       </c>
       <c r="E21" s="13">
-        <v>-61742</v>
+        <v>-46547</v>
       </c>
       <c r="F21" s="13">
-        <v>-131544</v>
+        <v>-51495</v>
       </c>
       <c r="G21" s="13">
-        <v>-21145</v>
+        <v>4597514</v>
       </c>
       <c r="H21" s="13">
-        <v>-9550</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-6428</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-75759</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-46547</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-51495</v>
-      </c>
-      <c r="M21" s="13">
-        <v>4597514</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-184701</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>6010819</v>
+        <v>14067666</v>
       </c>
       <c r="E22" s="17">
-        <v>12996121</v>
+        <v>23509680</v>
       </c>
       <c r="F22" s="17">
-        <v>13716153</v>
+        <v>57484033</v>
       </c>
       <c r="G22" s="17">
-        <v>8763893</v>
+        <v>128117318</v>
       </c>
       <c r="H22" s="17">
-        <v>7377523</v>
-      </c>
-      <c r="I22" s="17">
-        <v>3247663</v>
-      </c>
-      <c r="J22" s="17">
-        <v>14067666</v>
-      </c>
-      <c r="K22" s="17">
-        <v>23509680</v>
-      </c>
-      <c r="L22" s="17">
-        <v>57484033</v>
-      </c>
-      <c r="M22" s="17">
-        <v>128117318</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>255827897</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1273,107 +993,62 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>6010819</v>
+        <v>14067666</v>
       </c>
       <c r="E24" s="17">
-        <v>12996121</v>
+        <v>23509680</v>
       </c>
       <c r="F24" s="17">
-        <v>13716153</v>
+        <v>57484033</v>
       </c>
       <c r="G24" s="17">
-        <v>8763893</v>
+        <v>128117318</v>
       </c>
       <c r="H24" s="17">
-        <v>7377523</v>
-      </c>
-      <c r="I24" s="17">
-        <v>3247663</v>
-      </c>
-      <c r="J24" s="17">
-        <v>14067666</v>
-      </c>
-      <c r="K24" s="17">
-        <v>23509680</v>
-      </c>
-      <c r="L24" s="17">
-        <v>57484033</v>
-      </c>
-      <c r="M24" s="17">
-        <v>128117318</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>255827897</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13">
-        <v>6011</v>
+      <c r="D25" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="13">
-        <v>4332</v>
+        <v>3918</v>
       </c>
       <c r="F25" s="13">
-        <v>4572</v>
+        <v>9581</v>
       </c>
       <c r="G25" s="13">
-        <v>1461</v>
+        <v>21353</v>
       </c>
       <c r="H25" s="13">
-        <v>1230</v>
-      </c>
-      <c r="I25" s="13">
-        <v>541</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="13">
-        <v>3918</v>
-      </c>
-      <c r="L25" s="13">
-        <v>9581</v>
-      </c>
-      <c r="M25" s="13">
-        <v>21353</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>42638</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
       <c r="E26" s="11">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="F26" s="11">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="G26" s="11">
         <v>6000000</v>
@@ -1381,59 +1056,29 @@
       <c r="H26" s="11">
         <v>6000000</v>
       </c>
-      <c r="I26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>1002</v>
+        <v>2345</v>
       </c>
       <c r="E27" s="13">
-        <v>2166</v>
+        <v>3918</v>
       </c>
       <c r="F27" s="13">
-        <v>2286</v>
+        <v>9581</v>
       </c>
       <c r="G27" s="13">
-        <v>1461</v>
+        <v>21353</v>
       </c>
       <c r="H27" s="13">
-        <v>1230</v>
-      </c>
-      <c r="I27" s="13">
-        <v>541</v>
-      </c>
-      <c r="J27" s="13">
-        <v>2345</v>
-      </c>
-      <c r="K27" s="13">
-        <v>3918</v>
-      </c>
-      <c r="L27" s="13">
-        <v>9581</v>
-      </c>
-      <c r="M27" s="13">
-        <v>21353</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>42638</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1441,11 +1086,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
